--- a/assets/excel.xlsx
+++ b/assets/excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="Representativos" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Ev. Médica" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Líderes" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Otro" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -380,6 +379,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -990,6 +990,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1642,6 +1643,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -2448,6 +2450,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -3100,6 +3103,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -4249,6 +4253,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -4901,6 +4906,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -5707,6 +5713,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -6359,6 +6366,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -6864,6 +6872,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -7396,6 +7405,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -8048,6 +8058,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -8854,6 +8865,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -9506,6 +9518,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -10586,6 +10599,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -11238,6 +11252,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -11876,7 +11891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11907,343 +11922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Índice de masa corporal hombres</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:x val="-0.0020799999999999998"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Otro!$C$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>IMC&lt;18.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v xml:space="preserve">IMC 18.5 - 24.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v xml:space="preserve">IMC 25 - 29.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v xml:space="preserve">IMC &gt;30 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Otro!$C$2:$F$2</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-25"/>
-        <c:axId val="1073"/>
-        <c:axId val="1074"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1073"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1074"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1074"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1073"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="5817531" y="1347786"/>
-      <a:ext cx="4552948" cy="2724148"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Índice de masa corporal mujeres</a:t>
+              <a:t>Índice masa corporal mujeres</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -12279,580 +11958,6 @@
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="100000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Otro!$H$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>IMC&lt;18.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v xml:space="preserve">IMC 18.5 - 24.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v xml:space="preserve">IMC 25 - 29.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v xml:space="preserve">IMC &gt;30 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Otro!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-25"/>
-        <c:axId val="1076"/>
-        <c:axId val="1077"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1076"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1077"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1077"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1076"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="5817531" y="4511655"/>
-      <a:ext cx="4552948" cy="2724148"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Pacientes divididos por género</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="100000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Otro!$B$1,Otro!$G$1)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Masculino</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Femenino</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Otro!$B$2,Otro!$G$2)</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="997881" y="1435078"/>
-      <a:ext cx="4552948" cy="2724148"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Índice masa corporal hombres</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -12928,7 +12033,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Otro!$C$1:$F$1</c:f>
+              <c:f>Todos!$H$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -12948,19 +12053,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Otro!$C$2:$F$2</c:f>
+              <c:f>Todos!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -13024,556 +12129,8 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="10665756" y="1762123"/>
-      <a:ext cx="2295523" cy="1895473"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Índice masa corporal mujeres</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$H$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>IMC&lt;18.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v xml:space="preserve">IMC 18.5 - 24.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v xml:space="preserve">IMC 25 - 29.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v xml:space="preserve">IMC &gt;30 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="1"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
       <a:off x="10763249" y="4772024"/>
       <a:ext cx="2362199" cy="2022435"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr/>
-              <a:t>Índice masa corporal mujeres</a:t>
-            </a:r>
-            <a:endParaRPr/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Otro!$H$1:$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>IMC&lt;18.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v xml:space="preserve">IMC 18.5 - 24.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v xml:space="preserve">IMC 25 - 29.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v xml:space="preserve">IMC &gt;30 </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Otro!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="1"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="true" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="true"/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm>
-      <a:off x="10763248" y="4772023"/>
-      <a:ext cx="2362198" cy="2022435"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
       <a:avLst/>
@@ -13776,6 +12333,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -14428,6 +12986,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -14797,7 +13356,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
@@ -14829,7 +13388,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168254</xdr:rowOff>
     </xdr:from>
@@ -14987,12 +13546,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15024,7 +13583,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -15120,7 +13679,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -15158,7 +13717,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15182,12 +13741,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15219,7 +13778,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -15315,7 +13874,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -15353,7 +13912,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15377,12 +13936,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15414,7 +13973,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -15510,7 +14069,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -15548,7 +14107,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15572,12 +14131,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15609,7 +14168,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -15705,7 +14264,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -15743,7 +14302,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15767,12 +14326,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15804,7 +14363,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -15900,7 +14459,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -15938,7 +14497,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -15962,12 +14521,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -15999,7 +14558,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -16095,7 +14654,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -16133,7 +14692,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16157,12 +14716,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -16194,7 +14753,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -16290,7 +14849,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -16328,7 +14887,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16352,12 +14911,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
@@ -16389,7 +14948,7 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
+      <xdr:colOff>654980</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168253</xdr:rowOff>
     </xdr:from>
@@ -16485,7 +15044,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>83481</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
+      <xdr:rowOff>133347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -16523,202 +15082,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104773</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10763248" y="4772023"/>
-        <a:ext cx="2362198" cy="2022435"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607356</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5817531" y="1347786"/>
-        <a:ext cx="4552948" cy="2724148"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654981</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>168253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607356</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177778</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5817531" y="4511655"/>
-        <a:ext cx="4552948" cy="2724148"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>997881</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>168253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388281</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>177778</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="997881" y="1435078"/>
-        <a:ext cx="4552948" cy="2724148"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>502581</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>34903</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2857500" cy="2038348"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image1.png" hidden="0" title="Imagen"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1797981" y="4921228"/>
-          <a:ext cx="2857500" cy="2038348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83481</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>550206</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="" hidden="0"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="10665756" y="1762123"/>
-        <a:ext cx="2295523" cy="1895473"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180973</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104773</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>98384</xdr:rowOff>
+      <xdr:rowOff>98383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -17508,144 +15872,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="19.421875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="12.28125"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="12.8515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="16.8515625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="16.00390625"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="14.7109375"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="11.8515625"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="13.140625"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="14.00390625"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="15.28125"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="12.28125"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" width="13.57421875"/>
-    <col bestFit="1" customWidth="1" min="17" max="17" width="12.28125"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2">
-        <f>B2+G2</f>
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
-        <f>C2+D2+E2+F2</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
-        <f>H2+I2+J2+K2</f>
-        <v>4</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="P19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="P20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="P21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="P22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
@@ -17791,7 +16017,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
